--- a/data/trans_bre/P35-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P35-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.567837410110485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.792156275202127</v>
+        <v>-1.792156275202131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1409104882643735</v>
@@ -649,7 +649,7 @@
         <v>0.2762086807943085</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1413029627130395</v>
+        <v>-0.1413029627130399</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.76170570514107</v>
+        <v>-4.873921920173601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.798591901116233</v>
+        <v>8.082266669094155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.304381085269851</v>
+        <v>1.775521674291858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.257176106457379</v>
+        <v>-6.071720332701029</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1920009146784763</v>
+        <v>-0.2268480194163423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2478500432358179</v>
+        <v>0.2892491309235474</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03700398988123034</v>
+        <v>0.0359592957253972</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3997562109023982</v>
+        <v>-0.390570014333067</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.15839135813217</v>
+        <v>9.658724747744717</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.17964546272919</v>
+        <v>24.05787242108961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.64609106879896</v>
+        <v>17.44354943620219</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.349875980265506</v>
+        <v>2.35156326105565</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.637301264243802</v>
+        <v>0.5811092412837751</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.181510728828988</v>
+        <v>1.182949809832501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5671069993092515</v>
+        <v>0.5633774429355591</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.239601291740257</v>
+        <v>0.2528349016740483</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.348626008170468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.754664315965737</v>
+        <v>1.754664315965754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4176389151873986</v>
@@ -749,7 +749,7 @@
         <v>0.2985444536789697</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04446247776662681</v>
+        <v>0.04446247776662723</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.163869260330388</v>
+        <v>4.068994700211854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3797732919051755</v>
+        <v>0.6394816383587003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.447904062575646</v>
+        <v>2.137068102088556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.02542029776076</v>
+        <v>-4.608991153661286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1530852786228601</v>
+        <v>0.1552455320997953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01236076110347168</v>
+        <v>0.01626541209869415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08563600080212391</v>
+        <v>0.05720472716613769</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1137361909227711</v>
+        <v>-0.1053298853574976</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.2571524565011</v>
+        <v>15.93531166029363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.97910788969491</v>
+        <v>13.59737951304796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.19025878433747</v>
+        <v>14.9450316612508</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.076638150797066</v>
+        <v>8.204706213778746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7521962484596032</v>
+        <v>0.7719621096169869</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.373250047785974</v>
+        <v>0.3973864267730391</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5783002931858655</v>
+        <v>0.5977754837361379</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2327919724942887</v>
+        <v>0.2324820266563908</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3146901825457492</v>
+        <v>-0.5016167616034833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.229642889424989</v>
+        <v>-1.081602821771643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09801247424548257</v>
+        <v>-0.6189469165040302</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.014605414130633</v>
+        <v>-5.355382416380031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02999811026672322</v>
+        <v>-0.04071937297036672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04936720877481639</v>
+        <v>-0.0410761203394986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.00225949474239811</v>
+        <v>-0.02193996511334722</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1593051671243406</v>
+        <v>-0.1643058128763317</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.69489717878719</v>
+        <v>10.86276997503151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.36610078844361</v>
+        <v>12.59160798069076</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.23500494644398</v>
+        <v>13.26907312106398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.952090607203723</v>
+        <v>6.320610226590928</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9706100072281635</v>
+        <v>1.013293415742607</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6771226407365702</v>
+        <v>0.6070241509668851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6155452390447143</v>
+        <v>0.5760073888214265</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2843880686133298</v>
+        <v>0.2491857623934454</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.03346317830366316</v>
+        <v>0.2800002869481743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.561935616658214</v>
+        <v>10.14852543021733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.04559304847561255</v>
+        <v>0.2136550510466907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.21983263556708</v>
+        <v>-3.880891867008414</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.003920522732361654</v>
+        <v>0.01135238712159871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4668953901410854</v>
+        <v>0.5003546188659392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.00158610742566163</v>
+        <v>0.005171380436585617</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1581216338584836</v>
+        <v>-0.1438639782029204</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.40469836151192</v>
+        <v>12.0979075928188</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.64693039294925</v>
+        <v>23.70367557347585</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.62963187005228</v>
+        <v>14.1331800202965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.816598976882576</v>
+        <v>9.417823146018472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8395775093228587</v>
+        <v>0.8026058323042188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.67852318621688</v>
+        <v>1.745233589336973</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5374493924310157</v>
+        <v>0.5394851564874771</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4849722897916766</v>
+        <v>0.5053004596443962</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.2517284686260059</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.02904446433220201</v>
+        <v>0.029044464332202</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.008833870015676</v>
+        <v>-1.953635749141065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.467436509857717</v>
+        <v>4.921073367542359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5712402869672968</v>
+        <v>1.132831627963104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.660830443612191</v>
+        <v>-6.038898088807092</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1794256652261026</v>
+        <v>-0.177982010600988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1589266660339149</v>
+        <v>0.1816351314346414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01163331463201838</v>
+        <v>0.0231634455357681</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1973913121307128</v>
+        <v>-0.1804206368836586</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.51924382381807</v>
+        <v>10.71378451027867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.35256343689454</v>
+        <v>22.25227924505473</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.80384314024863</v>
+        <v>18.96592225689615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.642572405243701</v>
+        <v>7.996796282181104</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.578257569616745</v>
+        <v>1.616263457664305</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.252694374665471</v>
+        <v>1.246496075232058</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5319517296848822</v>
+        <v>0.5382970491998293</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3166346103631054</v>
+        <v>0.3218617356573173</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.998012907250343</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7876554118877666</v>
+        <v>0.787655411887761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.120267565911457</v>
@@ -1149,7 +1149,7 @@
         <v>0.3986302403239995</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.02667014210006817</v>
+        <v>0.02667014210006798</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.641542803267383</v>
+        <v>-4.327972432069567</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.269784446947343</v>
+        <v>0.0470147156683183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.071391211609622</v>
+        <v>1.446170109154309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.519757963507213</v>
+        <v>-5.277016145596676</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1908550108708101</v>
+        <v>-0.1771643885685287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0363632203961852</v>
+        <v>0.001430316872123059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04218585577644691</v>
+        <v>0.05216029759196267</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1708610905931872</v>
+        <v>-0.1596183972253662</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.5867876821709</v>
+        <v>10.49266005809366</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.56154633898393</v>
+        <v>16.85787260790691</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.74054419604117</v>
+        <v>16.83445181013832</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.736249081040794</v>
+        <v>7.558304273772158</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6127349917548761</v>
+        <v>0.63622433798105</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7164729303644555</v>
+        <v>0.6673640966720632</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9020103683979074</v>
+        <v>0.9070319406323664</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2538508516985593</v>
+        <v>0.2974373071568023</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.954362846727162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.356064800156204</v>
+        <v>9.356064800156211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08352980614356688</v>
@@ -1249,7 +1249,7 @@
         <v>0.1628608276800794</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3866633133634185</v>
+        <v>0.3866633133634187</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.524825697858299</v>
+        <v>-2.99555950758136</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.67516444153774</v>
+        <v>1.203251529433062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4611580957982133</v>
+        <v>-0.9262049682212954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.711102772823403</v>
+        <v>4.602587268694195</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1771806825961778</v>
+        <v>-0.2020691499092664</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05919164632673527</v>
+        <v>0.04025572601743676</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.0118177176214958</v>
+        <v>-0.02294258404442166</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.17357568470414</v>
+        <v>0.1748697107076506</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.991820768358169</v>
+        <v>5.009893650765209</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.76589742841498</v>
+        <v>11.65180187320845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.26974329708383</v>
+        <v>10.01525786488808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.86621714896268</v>
+        <v>13.94732554645119</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4598520208251002</v>
+        <v>0.4475006049142207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4887262678170389</v>
+        <v>0.4973746655649565</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3794689506116126</v>
+        <v>0.3639060992988848</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.659265035728643</v>
+        <v>0.6414039304638612</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>5.497889670776024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.989551086862621</v>
+        <v>4.989551086862631</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1214216048552422</v>
@@ -1349,7 +1349,7 @@
         <v>0.263395278473079</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.08331461919955548</v>
+        <v>0.08331461919955566</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.865700287919712</v>
+        <v>-1.805715169710491</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.269006359245028</v>
+        <v>-1.495397481094594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.046170719769452</v>
+        <v>1.11425377256754</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.1635904040934814</v>
+        <v>0.2651319933011265</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08695196631888469</v>
+        <v>-0.09006200793487597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04708847144705494</v>
+        <v>-0.05552585415346147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04962937885802433</v>
+        <v>0.04764177464534854</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.003130486608740205</v>
+        <v>0.005170502156974503</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.27894862610332</v>
+        <v>6.354564996764155</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.137468802370796</v>
+        <v>8.575995679565604</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.06502116715098</v>
+        <v>9.899829377327555</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.671419030650139</v>
+        <v>9.869432956594189</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3566131067131278</v>
+        <v>0.3663617856847857</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3708973306255912</v>
+        <v>0.3934059590359082</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.548313794641468</v>
+        <v>0.5299913391631642</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1692459374269124</v>
+        <v>0.1758282483973247</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>6.945867349296048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.497881695771948</v>
+        <v>3.497881695771943</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2317893317649524</v>
@@ -1449,7 +1449,7 @@
         <v>0.2490279139164491</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1017411834756208</v>
+        <v>0.1017411834756206</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.939739534385224</v>
+        <v>2.116682764658133</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.097380911072184</v>
+        <v>6.13306234473175</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.682045696538029</v>
+        <v>4.722286299877386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.478011790685869</v>
+        <v>1.353412667870658</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1047756443814707</v>
+        <v>0.1154246350310469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2229440517313927</v>
+        <v>0.2259809293727562</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1597508726942548</v>
+        <v>0.1590428054457007</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.04200137714637107</v>
+        <v>0.03873285162510505</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.041765194379903</v>
+        <v>6.010287038515638</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.55682178182887</v>
+        <v>10.60688338853202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.392496253495153</v>
+        <v>9.27128887295517</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.914585696299598</v>
+        <v>5.675350201111053</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3669462682954729</v>
+        <v>0.3655106662210781</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4300106384246101</v>
+        <v>0.4230348412393938</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3514262754807915</v>
+        <v>0.3476623465123873</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1813838635124092</v>
+        <v>0.171619835789784</v>
       </c>
     </row>
     <row r="31">
